--- a/Output/April/productivity_agent_valid/productivity_agent_2022-04-27_valid.xlsx
+++ b/Output/April/productivity_agent_valid/productivity_agent_2022-04-27_valid.xlsx
@@ -2263,13 +2263,13 @@
         <v>298</v>
       </c>
       <c r="F4">
-        <v>7.749999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="G4">
         <v>0.7333333333333334</v>
       </c>
       <c r="H4">
-        <v>8.483333333333333</v>
+        <v>8.483333333333334</v>
       </c>
       <c r="I4">
         <v>0.9135559921414538</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>4.449999999999999</v>
+        <v>4.45</v>
       </c>
       <c r="AP4">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="AV4">
-        <v>55.87499999999999</v>
+        <v>55.875</v>
       </c>
       <c r="AW4">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="BH4">
-        <v>315.056179775281</v>
+        <v>315.0561797752809</v>
       </c>
       <c r="BI4">
         <v>0</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.3440860215053764</v>
+        <v>0.3440860215053763</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.08172043010752689</v>
+        <v>0.08172043010752687</v>
       </c>
       <c r="CD4">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.7449999999999999</v>
+        <v>0.745</v>
       </c>
       <c r="CI4">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.433961680131241</v>
+        <v>0.4339616801312409</v>
       </c>
       <c r="CU4">
         <v>0</v>
@@ -2580,13 +2580,13 @@
         <v>300</v>
       </c>
       <c r="F5">
-        <v>8.700000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G5">
         <v>0.6833333333333333</v>
       </c>
       <c r="H5">
-        <v>9.383333333333335</v>
+        <v>9.383333333333333</v>
       </c>
       <c r="I5">
         <v>0.9271758436944938</v>
@@ -2790,10 +2790,10 @@
         <v>0.2375478927203065</v>
       </c>
       <c r="BX5">
-        <v>0.4367816091954022</v>
+        <v>0.4367816091954023</v>
       </c>
       <c r="BY5">
-        <v>0.3256704980842911</v>
+        <v>0.3256704980842912</v>
       </c>
       <c r="BZ5">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.5627538590333507</v>
+        <v>0.562753859033351</v>
       </c>
     </row>
     <row r="6" spans="1:105">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="BD6">
-        <v>87.36842105263159</v>
+        <v>87.36842105263158</v>
       </c>
       <c r="BE6">
         <v>64.8</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.7370689655172413</v>
+        <v>0.7370689655172414</v>
       </c>
       <c r="BX6">
         <v>0.1077586206896552</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="CP6">
-        <v>0.7663896583564175</v>
+        <v>0.7663896583564174</v>
       </c>
       <c r="CQ6">
         <v>0.4531468531468531</v>
@@ -3534,7 +3534,7 @@
         <v>5.5</v>
       </c>
       <c r="G8">
-        <v>3.783333333333334</v>
+        <v>3.783333333333333</v>
       </c>
       <c r="H8">
         <v>9.283333333333333</v>
@@ -4485,10 +4485,10 @@
         <v>1.883333333333333</v>
       </c>
       <c r="G11">
-        <v>7.633333333333333</v>
+        <v>7.633333333333334</v>
       </c>
       <c r="H11">
-        <v>9.516666666666666</v>
+        <v>9.516666666666667</v>
       </c>
       <c r="I11">
         <v>0.1978984238178634</v>
@@ -5116,13 +5116,13 @@
         <v>299</v>
       </c>
       <c r="F13">
-        <v>9.35</v>
+        <v>9.350000000000001</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>9.35</v>
+        <v>9.350000000000001</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5323,10 +5323,10 @@
         <v>0</v>
       </c>
       <c r="BW13">
-        <v>0.5918003565062389</v>
+        <v>0.5918003565062387</v>
       </c>
       <c r="BX13">
-        <v>0.4081996434937612</v>
+        <v>0.4081996434937611</v>
       </c>
       <c r="BY13">
         <v>0</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="DA13">
-        <v>0.7757258221654506</v>
+        <v>0.7757258221654505</v>
       </c>
     </row>
     <row r="14" spans="1:105">
@@ -5529,7 +5529,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="AL14">
-        <v>9.166666666666668</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AM14">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>60</v>
       </c>
       <c r="BE14">
-        <v>92.61818181818181</v>
+        <v>92.61818181818182</v>
       </c>
       <c r="BF14">
         <v>0</v>
@@ -5643,7 +5643,7 @@
         <v>0.03508771929824561</v>
       </c>
       <c r="BX14">
-        <v>0.9649122807017545</v>
+        <v>0.9649122807017543</v>
       </c>
       <c r="BY14">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="DA14">
-        <v>0.6434212140583333</v>
+        <v>0.6434212140583332</v>
       </c>
     </row>
     <row r="15" spans="1:105">
@@ -6701,13 +6701,13 @@
         <v>299</v>
       </c>
       <c r="F18">
-        <v>9.366666666666665</v>
+        <v>9.366666666666667</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9.366666666666665</v>
+        <v>9.366666666666667</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -6908,13 +6908,13 @@
         <v>0</v>
       </c>
       <c r="BW18">
-        <v>0.2224199288256228</v>
+        <v>0.2224199288256227</v>
       </c>
       <c r="BX18">
         <v>0.1708185053380783</v>
       </c>
       <c r="BY18">
-        <v>0.606761565836299</v>
+        <v>0.6067615658362989</v>
       </c>
       <c r="BZ18">
         <v>0</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="DA18">
-        <v>0.5658490694546137</v>
+        <v>0.5658490694546136</v>
       </c>
     </row>
     <row r="19" spans="1:105">
@@ -9237,13 +9237,13 @@
         <v>299</v>
       </c>
       <c r="F26">
-        <v>4.983333333333334</v>
+        <v>4.983333333333333</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>4.983333333333334</v>
+        <v>4.983333333333333</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -9444,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="BW26">
-        <v>0.6187290969899665</v>
+        <v>0.6187290969899666</v>
       </c>
       <c r="BX26">
         <v>0.3812709030100334</v>
@@ -9534,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="DA26">
-        <v>0.5932054215807075</v>
+        <v>0.5932054215807077</v>
       </c>
     </row>
     <row r="27" spans="1:105">
@@ -9871,13 +9871,13 @@
         <v>299</v>
       </c>
       <c r="F28">
-        <v>9.100000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>9.100000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="CC28">
-        <v>0.879120879120879</v>
+        <v>0.8791208791208791</v>
       </c>
       <c r="CD28">
         <v>0</v>
@@ -10168,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="DA28">
-        <v>0.6472315563224653</v>
+        <v>0.6472315563224654</v>
       </c>
     </row>
     <row r="29" spans="1:105">
@@ -10975,7 +10975,7 @@
         <v>67.84090909090908</v>
       </c>
       <c r="BE31">
-        <v>39.71098265895953</v>
+        <v>39.71098265895954</v>
       </c>
       <c r="BF31">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>0.3371647509578545</v>
       </c>
       <c r="BX31">
-        <v>0.6628352490421457</v>
+        <v>0.6628352490421456</v>
       </c>
       <c r="BY31">
         <v>0</v>
@@ -11089,7 +11089,7 @@
         <v>0.5950956937799042</v>
       </c>
       <c r="CQ31">
-        <v>0.2776991794332834</v>
+        <v>0.2776991794332835</v>
       </c>
       <c r="CR31">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>299</v>
       </c>
       <c r="F32">
-        <v>7.533333333333334</v>
+        <v>7.533333333333333</v>
       </c>
       <c r="G32">
         <v>1.866666666666667</v>
@@ -11148,7 +11148,7 @@
         <v>9.4</v>
       </c>
       <c r="I32">
-        <v>0.8014184397163121</v>
+        <v>0.801418439716312</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="AK32">
-        <v>3.683333333333334</v>
+        <v>3.683333333333333</v>
       </c>
       <c r="AL32">
         <v>3.85</v>
@@ -11289,7 +11289,7 @@
         <v>0</v>
       </c>
       <c r="BD32">
-        <v>95.02262443438913</v>
+        <v>95.02262443438914</v>
       </c>
       <c r="BE32">
         <v>31.16883116883117</v>
@@ -11349,7 +11349,7 @@
         <v>0.4889380530973451</v>
       </c>
       <c r="BX32">
-        <v>0.5110619469026548</v>
+        <v>0.5110619469026549</v>
       </c>
       <c r="BY32">
         <v>0</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="CP32">
-        <v>0.8335317932841152</v>
+        <v>0.8335317932841153</v>
       </c>
       <c r="CQ32">
         <v>0.2179638543274907</v>
@@ -11436,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="DA32">
-        <v>0.518938443950088</v>
+        <v>0.5189384439500881</v>
       </c>
     </row>
     <row r="33" spans="1:105">
@@ -11606,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="BD33">
-        <v>78.46153846153847</v>
+        <v>78.46153846153845</v>
       </c>
       <c r="BE33">
         <v>38.73134328358209</v>
@@ -11720,7 +11720,7 @@
         <v>0</v>
       </c>
       <c r="CP33">
-        <v>0.6882591093117409</v>
+        <v>0.6882591093117408</v>
       </c>
       <c r="CQ33">
         <v>0.270848554430644</v>
@@ -12090,13 +12090,13 @@
         <v>299</v>
       </c>
       <c r="F35">
-        <v>8.899999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>8.899999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -12309,13 +12309,13 @@
         <v>0</v>
       </c>
       <c r="CA35">
-        <v>0.3576779026217229</v>
+        <v>0.3576779026217228</v>
       </c>
       <c r="CB35">
         <v>0</v>
       </c>
       <c r="CC35">
-        <v>0.4981273408239701</v>
+        <v>0.49812734082397</v>
       </c>
       <c r="CD35">
         <v>0</v>
@@ -12387,7 +12387,7 @@
         <v>0</v>
       </c>
       <c r="DA35">
-        <v>0.5232635937436756</v>
+        <v>0.5232635937436755</v>
       </c>
     </row>
     <row r="36" spans="1:105">
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
       <c r="AK37">
-        <v>2.383333333333334</v>
+        <v>2.383333333333333</v>
       </c>
       <c r="AL37">
         <v>6.933333333333334</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="BD37">
-        <v>98.18181818181816</v>
+        <v>98.18181818181819</v>
       </c>
       <c r="BE37">
         <v>97.06730769230769</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="BW37">
-        <v>0.2558139534883722</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="BX37">
         <v>0.7441860465116279</v>
@@ -12988,7 +12988,7 @@
         <v>0</v>
       </c>
       <c r="CP37">
-        <v>0.8612440191387558</v>
+        <v>0.861244019138756</v>
       </c>
       <c r="CQ37">
         <v>0.6787923614846691</v>
@@ -13152,7 +13152,7 @@
         <v>0</v>
       </c>
       <c r="AQ38">
-        <v>4.283333333333334</v>
+        <v>4.283333333333333</v>
       </c>
       <c r="AR38">
         <v>0</v>
@@ -13209,7 +13209,7 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>310.0389105058365</v>
+        <v>310.0389105058366</v>
       </c>
       <c r="BK38">
         <v>0</v>
@@ -13266,7 +13266,7 @@
         <v>0</v>
       </c>
       <c r="CC38">
-        <v>0.4776951672862454</v>
+        <v>0.4776951672862453</v>
       </c>
       <c r="CD38">
         <v>0</v>
@@ -13323,7 +13323,7 @@
         <v>0</v>
       </c>
       <c r="CV38">
-        <v>0.4270508409171301</v>
+        <v>0.4270508409171303</v>
       </c>
       <c r="CW38">
         <v>0</v>
@@ -14943,13 +14943,13 @@
         <v>299</v>
       </c>
       <c r="F44">
-        <v>9.016666666666666</v>
+        <v>9.016666666666667</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>9.016666666666666</v>
+        <v>9.016666666666667</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -15144,7 +15144,7 @@
         <v>0</v>
       </c>
       <c r="BU44">
-        <v>0.1959334565619224</v>
+        <v>0.1959334565619223</v>
       </c>
       <c r="BV44">
         <v>0</v>
@@ -15162,13 +15162,13 @@
         <v>0</v>
       </c>
       <c r="CA44">
-        <v>0.6192236598890943</v>
+        <v>0.6192236598890942</v>
       </c>
       <c r="CB44">
         <v>0</v>
       </c>
       <c r="CC44">
-        <v>0.1848428835489834</v>
+        <v>0.1848428835489833</v>
       </c>
       <c r="CD44">
         <v>0</v>
@@ -15781,7 +15781,7 @@
         <v>0</v>
       </c>
       <c r="BV46">
-        <v>0.8023255813953489</v>
+        <v>0.8023255813953488</v>
       </c>
       <c r="BW46">
         <v>0</v>
@@ -15894,7 +15894,7 @@
         <v>299</v>
       </c>
       <c r="F47">
-        <v>7.116666666666667</v>
+        <v>7.116666666666666</v>
       </c>
       <c r="G47">
         <v>3.283333333333333</v>
@@ -16083,7 +16083,7 @@
         <v>0.6206088992974238</v>
       </c>
       <c r="BQ47">
-        <v>0.00702576112412178</v>
+        <v>0.007025761124121781</v>
       </c>
       <c r="BR47">
         <v>0</v>
@@ -16845,13 +16845,13 @@
         <v>298</v>
       </c>
       <c r="F50">
-        <v>9.350000000000001</v>
+        <v>9.35</v>
       </c>
       <c r="G50">
         <v>0.1666666666666667</v>
       </c>
       <c r="H50">
-        <v>9.516666666666667</v>
+        <v>9.516666666666666</v>
       </c>
       <c r="I50">
         <v>0.9824868651488617</v>
@@ -17034,13 +17034,13 @@
         <v>0</v>
       </c>
       <c r="BQ50">
-        <v>0.7950089126559714</v>
+        <v>0.7950089126559715</v>
       </c>
       <c r="BR50">
         <v>0</v>
       </c>
       <c r="BS50">
-        <v>0.0552584670231729</v>
+        <v>0.05525846702317291</v>
       </c>
       <c r="BT50">
         <v>0</v>
@@ -17142,7 +17142,7 @@
         <v>0</v>
       </c>
       <c r="DA50">
-        <v>0.328384499864382</v>
+        <v>0.3283844998643821</v>
       </c>
     </row>
     <row r="51" spans="1:105">
@@ -17796,13 +17796,13 @@
         <v>299</v>
       </c>
       <c r="F53">
-        <v>9.016666666666669</v>
+        <v>9.016666666666667</v>
       </c>
       <c r="G53">
         <v>0.3833333333333334</v>
       </c>
       <c r="H53">
-        <v>9.400000000000002</v>
+        <v>9.4</v>
       </c>
       <c r="I53">
         <v>0.9592198581560284</v>
@@ -17871,7 +17871,7 @@
         <v>0</v>
       </c>
       <c r="AE53">
-        <v>7.366666666666666</v>
+        <v>7.366666666666667</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -17928,7 +17928,7 @@
         <v>0</v>
       </c>
       <c r="AX53">
-        <v>215.7013574660634</v>
+        <v>215.7013574660633</v>
       </c>
       <c r="AY53">
         <v>0</v>
@@ -17985,13 +17985,13 @@
         <v>0</v>
       </c>
       <c r="BQ53">
-        <v>0.8170055452865062</v>
+        <v>0.8170055452865065</v>
       </c>
       <c r="BR53">
         <v>0</v>
       </c>
       <c r="BS53">
-        <v>0.08502772643253233</v>
+        <v>0.08502772643253234</v>
       </c>
       <c r="BT53">
         <v>0</v>
@@ -18018,7 +18018,7 @@
         <v>0</v>
       </c>
       <c r="CB53">
-        <v>0.09796672828096115</v>
+        <v>0.09796672828096117</v>
       </c>
       <c r="CC53">
         <v>0</v>
@@ -18042,7 +18042,7 @@
         <v>0</v>
       </c>
       <c r="CJ53">
-        <v>0.2157013574660634</v>
+        <v>0.2157013574660633</v>
       </c>
       <c r="CK53">
         <v>0</v>
@@ -18093,7 +18093,7 @@
         <v>0</v>
       </c>
       <c r="DA53">
-        <v>0.2432384796695292</v>
+        <v>0.2432384796695293</v>
       </c>
     </row>
     <row r="54" spans="1:105">
@@ -18747,13 +18747,13 @@
         <v>298</v>
       </c>
       <c r="F56">
-        <v>9.383333333333335</v>
+        <v>9.383333333333333</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>9.383333333333335</v>
+        <v>9.383333333333333</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -18942,10 +18942,10 @@
         <v>0</v>
       </c>
       <c r="BS56">
-        <v>0.03019538188277086</v>
+        <v>0.03019538188277087</v>
       </c>
       <c r="BT56">
-        <v>0.0586145648312611</v>
+        <v>0.05861456483126111</v>
       </c>
       <c r="BU56">
         <v>0</v>
@@ -18969,7 +18969,7 @@
         <v>0</v>
       </c>
       <c r="CB56">
-        <v>0.07104795737122556</v>
+        <v>0.07104795737122557</v>
       </c>
       <c r="CC56">
         <v>0</v>
@@ -18984,7 +18984,7 @@
         <v>0</v>
       </c>
       <c r="CG56">
-        <v>0.8401420959147423</v>
+        <v>0.8401420959147424</v>
       </c>
       <c r="CH56">
         <v>0</v>
@@ -19064,16 +19064,16 @@
         <v>298</v>
       </c>
       <c r="F57">
-        <v>6.733333333333334</v>
+        <v>6.733333333333333</v>
       </c>
       <c r="G57">
         <v>2.65</v>
       </c>
       <c r="H57">
-        <v>9.383333333333335</v>
+        <v>9.383333333333333</v>
       </c>
       <c r="I57">
-        <v>0.7175843694493783</v>
+        <v>0.7175843694493784</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -19259,7 +19259,7 @@
         <v>0</v>
       </c>
       <c r="BS57">
-        <v>0.0792079207920792</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="BT57">
         <v>0</v>
@@ -19286,7 +19286,7 @@
         <v>0</v>
       </c>
       <c r="CB57">
-        <v>0.3069306930693069</v>
+        <v>0.306930693069307</v>
       </c>
       <c r="CC57">
         <v>0</v>
@@ -19794,7 +19794,7 @@
         <v>1.083333333333333</v>
       </c>
       <c r="AL59">
-        <v>7.416666666666667</v>
+        <v>7.416666666666666</v>
       </c>
       <c r="AM59">
         <v>0</v>
@@ -19851,7 +19851,7 @@
         <v>79.38461538461537</v>
       </c>
       <c r="BE59">
-        <v>105.0337078651685</v>
+        <v>105.0337078651686</v>
       </c>
       <c r="BF59">
         <v>0</v>
@@ -19908,7 +19908,7 @@
         <v>0.1274509803921569</v>
       </c>
       <c r="BX59">
-        <v>0.8725490196078431</v>
+        <v>0.872549019607843</v>
       </c>
       <c r="BY59">
         <v>0</v>
@@ -19995,7 +19995,7 @@
         <v>0</v>
       </c>
       <c r="DA59">
-        <v>0.7296398132311446</v>
+        <v>0.7296398132311445</v>
       </c>
     </row>
     <row r="60" spans="1:105">
@@ -21062,10 +21062,10 @@
         <v>0.4833333333333333</v>
       </c>
       <c r="AL63">
-        <v>4.816666666666667</v>
+        <v>4.816666666666666</v>
       </c>
       <c r="AM63">
-        <v>3.483333333333334</v>
+        <v>3.483333333333333</v>
       </c>
       <c r="AN63">
         <v>0</v>
@@ -21119,7 +21119,7 @@
         <v>66.20689655172414</v>
       </c>
       <c r="BE63">
-        <v>88.85813148788927</v>
+        <v>88.85813148788928</v>
       </c>
       <c r="BF63">
         <v>117.4162679425837</v>
@@ -21176,10 +21176,10 @@
         <v>0.05502846299810247</v>
       </c>
       <c r="BX63">
-        <v>0.5483870967741936</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="BY63">
-        <v>0.3965844402277041</v>
+        <v>0.396584440227704</v>
       </c>
       <c r="BZ63">
         <v>0</v>
@@ -21233,7 +21233,7 @@
         <v>0.5807622504537205</v>
       </c>
       <c r="CQ63">
-        <v>0.6213855348803445</v>
+        <v>0.6213855348803446</v>
       </c>
       <c r="CR63">
         <v>0.1630781499202552</v>
@@ -26355,13 +26355,13 @@
         <v>299</v>
       </c>
       <c r="F80">
-        <v>9.633333333333335</v>
+        <v>9.633333333333333</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>9.633333333333335</v>
+        <v>9.633333333333333</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -26547,7 +26547,7 @@
         <v>0.171280276816609</v>
       </c>
       <c r="BR80">
-        <v>0.3391003460207612</v>
+        <v>0.3391003460207613</v>
       </c>
       <c r="BS80">
         <v>0.2525951557093425</v>
@@ -26652,7 +26652,7 @@
         <v>0</v>
       </c>
       <c r="DA80">
-        <v>0.4336014044108759</v>
+        <v>0.4336014044108761</v>
       </c>
     </row>
     <row r="81" spans="1:105">
@@ -27306,13 +27306,13 @@
         <v>300</v>
       </c>
       <c r="F83">
-        <v>9.116666666666665</v>
+        <v>9.116666666666667</v>
       </c>
       <c r="G83">
         <v>0</v>
       </c>
       <c r="H83">
-        <v>9.116666666666665</v>
+        <v>9.116666666666667</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -27522,7 +27522,7 @@
         <v>0</v>
       </c>
       <c r="BZ83">
-        <v>0.853747714808044</v>
+        <v>0.8537477148080438</v>
       </c>
       <c r="CA83">
         <v>0.1316270566727605</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="DA83">
-        <v>0.4796107997038694</v>
+        <v>0.4796107997038693</v>
       </c>
     </row>
     <row r="84" spans="1:105">
@@ -27623,13 +27623,13 @@
         <v>305</v>
       </c>
       <c r="F84">
-        <v>8.983333333333333</v>
+        <v>8.983333333333334</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>8.983333333333333</v>
+        <v>8.983333333333334</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -27830,7 +27830,7 @@
         <v>0</v>
       </c>
       <c r="BW84">
-        <v>0.6419294990723563</v>
+        <v>0.6419294990723562</v>
       </c>
       <c r="BX84">
         <v>0.3580705009276438</v>
@@ -28643,7 +28643,7 @@
         <v>0</v>
       </c>
       <c r="AC87">
-        <v>5.333333333333334</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="AD87">
         <v>0</v>
@@ -28700,7 +28700,7 @@
         <v>0</v>
       </c>
       <c r="AV87">
-        <v>56.99999999999999</v>
+        <v>57</v>
       </c>
       <c r="AW87">
         <v>0</v>
@@ -28757,7 +28757,7 @@
         <v>0</v>
       </c>
       <c r="BO87">
-        <v>0.761904761904762</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="BP87">
         <v>0</v>
@@ -28814,7 +28814,7 @@
         <v>0</v>
       </c>
       <c r="CH87">
-        <v>0.7599999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="CI87">
         <v>0</v>
@@ -29525,13 +29525,13 @@
         <v>299</v>
       </c>
       <c r="F90">
-        <v>8.666666666666666</v>
+        <v>8.666666666666668</v>
       </c>
       <c r="G90">
         <v>0.6833333333333333</v>
       </c>
       <c r="H90">
-        <v>9.35</v>
+        <v>9.350000000000001</v>
       </c>
       <c r="I90">
         <v>0.9269162210338681</v>
@@ -29726,16 +29726,16 @@
         <v>0</v>
       </c>
       <c r="BU90">
-        <v>0.3865384615384616</v>
+        <v>0.3865384615384615</v>
       </c>
       <c r="BV90">
         <v>0</v>
       </c>
       <c r="BW90">
-        <v>0.06730769230769232</v>
+        <v>0.0673076923076923</v>
       </c>
       <c r="BX90">
-        <v>0.1461538461538462</v>
+        <v>0.1461538461538461</v>
       </c>
       <c r="BY90">
         <v>0</v>
@@ -29744,13 +29744,13 @@
         <v>0</v>
       </c>
       <c r="CA90">
-        <v>0.2288461538461539</v>
+        <v>0.2288461538461538</v>
       </c>
       <c r="CB90">
         <v>0</v>
       </c>
       <c r="CC90">
-        <v>0.1711538461538462</v>
+        <v>0.1711538461538461</v>
       </c>
       <c r="CD90">
         <v>0</v>
@@ -29822,7 +29822,7 @@
         <v>0</v>
       </c>
       <c r="DA90">
-        <v>0.8756280708617845</v>
+        <v>0.8756280708617844</v>
       </c>
     </row>
     <row r="91" spans="1:105">

--- a/Output/April/productivity_agent_valid/productivity_agent_2022-04-27_valid.xlsx
+++ b/Output/April/productivity_agent_valid/productivity_agent_2022-04-27_valid.xlsx
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="BD9">
-        <v>70.64516129032258</v>
+        <v>71.61290322580645</v>
       </c>
       <c r="BE9">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="CP9">
-        <v>0.6196943972835314</v>
+        <v>0.6281833616298811</v>
       </c>
       <c r="CQ9">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="DA9">
-        <v>0.6196943972835314</v>
+        <v>0.6281833616298811</v>
       </c>
     </row>
     <row r="10" spans="1:105">
@@ -5152,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="R13">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="S13">
         <v>341</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="BD13">
-        <v>100.3012048192771</v>
+        <v>100.6626506024096</v>
       </c>
       <c r="BE13">
         <v>89.34497816593885</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="CP13">
-        <v>0.8798351299936589</v>
+        <v>0.8830057070386811</v>
       </c>
       <c r="CQ13">
         <v>0.6247900571044676</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="DA13">
-        <v>0.7757258221654505</v>
+        <v>0.7776021707910251</v>
       </c>
     </row>
     <row r="14" spans="1:105">
@@ -6737,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="S18">
         <v>156</v>
@@ -6851,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="BD18">
-        <v>92.16000000000001</v>
+        <v>93.12000000000002</v>
       </c>
       <c r="BE18">
         <v>97.5</v>
@@ -6965,7 +6965,7 @@
         <v>0</v>
       </c>
       <c r="CP18">
-        <v>0.808421052631579</v>
+        <v>0.816842105263158</v>
       </c>
       <c r="CQ18">
         <v>0.6818181818181818</v>
@@ -6998,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="DA18">
-        <v>0.5658490694546136</v>
+        <v>0.5677220793815662</v>
       </c>
     </row>
     <row r="19" spans="1:105">
@@ -9590,7 +9590,7 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="S27">
         <v>254</v>
@@ -9704,7 +9704,7 @@
         <v>0</v>
       </c>
       <c r="BD27">
-        <v>111.3294797687861</v>
+        <v>112.3699421965318</v>
       </c>
       <c r="BE27">
         <v>68.95927601809956</v>
@@ -9818,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="CP27">
-        <v>0.9765743839367205</v>
+        <v>0.9857012473379982</v>
       </c>
       <c r="CQ27">
         <v>0.4822326994272697</v>
@@ -9851,7 +9851,7 @@
         <v>0</v>
       </c>
       <c r="DA27">
-        <v>0.6992913578540082</v>
+        <v>0.7032988384845185</v>
       </c>
     </row>
     <row r="28" spans="1:105">
@@ -14028,7 +14028,7 @@
         <v>0</v>
       </c>
       <c r="R41">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="S41">
         <v>263</v>
@@ -14142,7 +14142,7 @@
         <v>0</v>
       </c>
       <c r="BD41">
-        <v>115.4782608695652</v>
+        <v>116.1739130434783</v>
       </c>
       <c r="BE41">
         <v>71.4027149321267</v>
@@ -14256,7 +14256,7 @@
         <v>0</v>
       </c>
       <c r="CP41">
-        <v>1.012967200610221</v>
+        <v>1.01906941266209</v>
       </c>
       <c r="CQ41">
         <v>0.4993196848400469</v>
@@ -14289,7 +14289,7 @@
         <v>0</v>
       </c>
       <c r="DA41">
-        <v>0.8124087183041991</v>
+        <v>0.8161282645195608</v>
       </c>
     </row>
     <row r="42" spans="1:105">
@@ -14662,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="R43">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S43">
         <v>237</v>
@@ -14776,7 +14776,7 @@
         <v>0</v>
       </c>
       <c r="BD43">
-        <v>117.5757575757576</v>
+        <v>117.8787878787879</v>
       </c>
       <c r="BE43">
         <v>87.77777777777777</v>
@@ -14890,7 +14890,7 @@
         <v>0</v>
       </c>
       <c r="CP43">
-        <v>1.031366294524189</v>
+        <v>1.034024455077087</v>
       </c>
       <c r="CQ43">
         <v>0.6138306138306138</v>
@@ -14923,7 +14923,7 @@
         <v>0</v>
       </c>
       <c r="DA43">
-        <v>0.6550677031075964</v>
+        <v>0.6560551623749017</v>
       </c>
     </row>
     <row r="44" spans="1:105">
@@ -19734,7 +19734,7 @@
         <v>0</v>
       </c>
       <c r="R59">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="S59">
         <v>779</v>
@@ -19848,7 +19848,7 @@
         <v>0</v>
       </c>
       <c r="BD59">
-        <v>79.38461538461537</v>
+        <v>83.07692307692307</v>
       </c>
       <c r="BE59">
         <v>105.0337078651686</v>
@@ -19962,7 +19962,7 @@
         <v>0</v>
       </c>
       <c r="CP59">
-        <v>0.6963562753036436</v>
+        <v>0.7287449392712549</v>
       </c>
       <c r="CQ59">
         <v>0.7345014536025772</v>
@@ -19995,7 +19995,7 @@
         <v>0</v>
       </c>
       <c r="DA59">
-        <v>0.7296398132311445</v>
+        <v>0.7337677802074086</v>
       </c>
     </row>
     <row r="60" spans="1:105">
@@ -27025,7 +27025,7 @@
         <v>0</v>
       </c>
       <c r="R82">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S82">
         <v>130</v>
@@ -27139,7 +27139,7 @@
         <v>0</v>
       </c>
       <c r="BD82">
-        <v>105</v>
+        <v>107.1428571428571</v>
       </c>
       <c r="BE82">
         <v>70.27027027027027</v>
@@ -27253,7 +27253,7 @@
         <v>0</v>
       </c>
       <c r="CP82">
-        <v>0.9210526315789473</v>
+        <v>0.9398496240601504</v>
       </c>
       <c r="CQ82">
         <v>0.4914004914004914</v>
@@ -27286,7 +27286,7 @@
         <v>0</v>
       </c>
       <c r="DA82">
-        <v>0.577949123954425</v>
+        <v>0.5817355684830127</v>
       </c>
     </row>
     <row r="83" spans="1:105">
@@ -29561,7 +29561,7 @@
         <v>0</v>
       </c>
       <c r="R90">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="S90">
         <v>29</v>
@@ -29675,7 +29675,7 @@
         <v>0</v>
       </c>
       <c r="BD90">
-        <v>118.2857142857143</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="BE90">
         <v>22.89473684210526</v>
@@ -29789,7 +29789,7 @@
         <v>0</v>
       </c>
       <c r="CP90">
-        <v>1.037593984962406</v>
+        <v>1.12781954887218</v>
       </c>
       <c r="CQ90">
         <v>0.160103054839897</v>
@@ -29822,7 +29822,7 @@
         <v>0</v>
       </c>
       <c r="DA90">
-        <v>0.8756280708617844</v>
+        <v>0.8817009453557115</v>
       </c>
     </row>
     <row r="91" spans="1:105">
